--- a/Reports/Graph_Sprint_Data/UI_ASSESSMENT_SLOT_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_ASSESSMENT_SLOT_HISTORY_DATA.xlsx
@@ -370,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
@@ -1253,30 +1253,84 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
       </c>
       <c r="B33" s="10" t="n">
-        <v>45482.72766936039</v>
-      </c>
-      <c r="C33" t="inlineStr">
+        <v>45482.72766936343</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>12cd</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="5" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>45484.57562040509</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>23f</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>45484.57737902777</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>183s</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
@@ -1771,6 +1825,60 @@
       </c>
       <c r="G9" s="5" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>45484.57935719907</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>45484.81034705028</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>193dff</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_ASSESSMENT_SLOT_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_ASSESSMENT_SLOT_HISTORY_DATA.xlsx
@@ -1566,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
@@ -1855,29 +1855,56 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2024-07-11</t>
         </is>
       </c>
       <c r="B11" s="10" t="n">
-        <v>45484.81034705028</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>45484.81034704861</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>193dff</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>45485.54685635812</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>193assessmentslot</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_ASSESSMENT_SLOT_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_ASSESSMENT_SLOT_HISTORY_DATA.xlsx
@@ -370,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
@@ -1333,6 +1333,87 @@
         <v>1.92</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45489.62196925926</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>194fstcycle</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45490.74031769676</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>194scndcycle</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45491.34549679398</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1346,7 +1427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
@@ -1551,6 +1632,87 @@
       </c>
       <c r="G7" s="5" t="n">
         <v>0.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>45491.63546408565</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>45491.68771630787</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>194betaa</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>45491.70852871321</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.76</v>
       </c>
     </row>
   </sheetData>
@@ -1882,29 +2044,29 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>45485.54685635812</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>45485.54685635417</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>193assessmentslot</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>1.21</v>
       </c>
     </row>
